--- a/db/dummydata/ez_local_charges.xlsx
+++ b/db/dummydata/ez_local_charges.xlsx
@@ -14,12 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="41">
   <si>
     <t>EFFECTIVE_DATE</t>
   </si>
   <si>
     <t>EXPIRATION_DATE</t>
+  </si>
+  <si>
+    <t>DESTINATION</t>
+  </si>
+  <si>
+    <t>SERVICE LEVEL</t>
   </si>
   <si>
     <t>FEE</t>
@@ -82,6 +88,9 @@
     <t>rail</t>
   </si>
   <si>
+    <t>ocean</t>
+  </si>
+  <si>
     <t>THC</t>
   </si>
   <si>
@@ -91,16 +100,10 @@
     <t>Export</t>
   </si>
   <si>
-    <t>EUR</t>
+    <t>DKK</t>
   </si>
   <si>
     <t>PER_CBM_TON</t>
-  </si>
-  <si>
-    <t>ocean</t>
-  </si>
-  <si>
-    <t>DKK</t>
   </si>
   <si>
     <t>Customs Clearance</t>
@@ -110,6 +113,9 @@
   </si>
   <si>
     <t>PER_SHIPMENT</t>
+  </si>
+  <si>
+    <t>EUR</t>
   </si>
   <si>
     <t>Handling Fee</t>
@@ -145,11 +151,11 @@
     </font>
     <font/>
     <font>
-      <color rgb="FF000000"/>
+      <b/>
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -180,11 +186,11 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="14" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
@@ -222,7 +228,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="3" max="18" width="14.43"/>
+    <col customWidth="1" min="3" max="20" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -232,10 +238,10 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -277,307 +283,317 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="4">
         <f t="shared" ref="A2:A9" si="1">TODAY()</f>
-        <v>43255</v>
+        <v>43263</v>
       </c>
       <c r="B2" s="4">
         <f t="shared" ref="B2:B9" si="2">A2 + 365</f>
-        <v>43620</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>43628</v>
       </c>
       <c r="E2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="1">
         <v>150.0</v>
       </c>
-      <c r="K2" s="1">
+      <c r="M2" s="1">
         <v>75.0</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="S2" s="1">
         <v>150.0</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="4">
         <f t="shared" si="1"/>
-        <v>43255</v>
+        <v>43263</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" si="2"/>
-        <v>43620</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>43628</v>
       </c>
       <c r="E3" t="s">
         <v>30</v>
       </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="1">
+      <c r="K3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="1">
         <v>250.0</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="4">
         <f t="shared" si="1"/>
-        <v>43255</v>
+        <v>43263</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>43620</v>
-      </c>
-      <c r="C4" t="s">
+        <v>43628</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="1"/>
-      <c r="N4" s="1">
+      <c r="L4" s="1"/>
+      <c r="P4" s="1">
         <v>250.0</v>
       </c>
-      <c r="Q4" s="1"/>
+      <c r="S4" s="1"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="4">
         <f t="shared" si="1"/>
-        <v>43255</v>
+        <v>43263</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>43620</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="1" t="s">
+        <v>43628</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="1">
+      <c r="J5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="1">
         <v>166.0</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="S5" s="1">
         <v>166.0</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="4">
         <f t="shared" si="1"/>
-        <v>43255</v>
+        <v>43263</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>43620</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>43628</v>
       </c>
       <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="F6" t="s">
-        <v>23</v>
+      <c r="F6" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="1">
         <v>150.0</v>
       </c>
-      <c r="K6" s="1">
+      <c r="M6" s="1">
         <v>75.0</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="S6" s="1">
         <v>150.0</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="4">
         <f t="shared" si="1"/>
-        <v>43255</v>
+        <v>43263</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>43620</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>43628</v>
       </c>
       <c r="E7" t="s">
         <v>30</v>
       </c>
-      <c r="F7" t="s">
-        <v>23</v>
+      <c r="F7" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I7" t="s">
-        <v>31</v>
-      </c>
-      <c r="N7" s="1">
+      <c r="K7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" s="1">
         <v>250.0</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="4">
         <f t="shared" si="1"/>
-        <v>43255</v>
+        <v>43263</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>43620</v>
-      </c>
-      <c r="C8" t="s">
+        <v>43628</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="1"/>
-      <c r="N8" s="1">
+      <c r="L8" s="1"/>
+      <c r="P8" s="1">
         <v>250.0</v>
       </c>
-      <c r="Q8" s="1"/>
+      <c r="S8" s="1"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="4">
         <f t="shared" si="1"/>
-        <v>43255</v>
+        <v>43263</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>43620</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>27</v>
-      </c>
+        <v>43628</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" t="s">
         <v>38</v>
       </c>
-      <c r="H9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="1">
         <v>166.0</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="S9" s="1">
         <v>166.0</v>
       </c>
     </row>
@@ -1587,7 +1603,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="3" max="18" width="14.43"/>
+    <col customWidth="1" min="3" max="20" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -1597,10 +1613,10 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -1642,307 +1658,317 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="4">
         <f t="shared" ref="A2:A9" si="1">TODAY()</f>
-        <v>43255</v>
+        <v>43263</v>
       </c>
       <c r="B2" s="4">
         <f t="shared" ref="B2:B9" si="2">A2 + 365</f>
-        <v>43620</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>43628</v>
       </c>
       <c r="E2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="1">
         <v>150.0</v>
       </c>
-      <c r="K2" s="1">
+      <c r="M2" s="1">
         <v>75.0</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="S2" s="1">
         <v>150.0</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="4">
         <f t="shared" si="1"/>
-        <v>43255</v>
+        <v>43263</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" si="2"/>
-        <v>43620</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>43628</v>
       </c>
       <c r="E3" t="s">
         <v>30</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="1">
+      <c r="K3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="1">
         <v>250.0</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="4">
         <f t="shared" si="1"/>
-        <v>43255</v>
+        <v>43263</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>43620</v>
-      </c>
-      <c r="C4" t="s">
+        <v>43628</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="1"/>
-      <c r="N4" s="1">
+      <c r="L4" s="1"/>
+      <c r="P4" s="1">
         <v>250.0</v>
       </c>
-      <c r="Q4" s="1"/>
+      <c r="S4" s="1"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="4">
         <f t="shared" si="1"/>
-        <v>43255</v>
+        <v>43263</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>43620</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>43628</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="1">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="1">
         <v>166.0</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="S5" s="1">
         <v>166.0</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="4">
         <f t="shared" si="1"/>
-        <v>43255</v>
+        <v>43263</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>43620</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>43628</v>
       </c>
       <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="1">
         <v>150.0</v>
       </c>
-      <c r="K6" s="1">
+      <c r="M6" s="1">
         <v>75.0</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="S6" s="1">
         <v>150.0</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="4">
         <f t="shared" si="1"/>
-        <v>43255</v>
+        <v>43263</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>43620</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>43628</v>
       </c>
       <c r="E7" t="s">
         <v>30</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I7" t="s">
-        <v>31</v>
-      </c>
-      <c r="N7" s="1">
+      <c r="K7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" s="1">
         <v>250.0</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="4">
         <f t="shared" si="1"/>
-        <v>43255</v>
+        <v>43263</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>43620</v>
-      </c>
-      <c r="C8" t="s">
+        <v>43628</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="1"/>
-      <c r="N8" s="1">
+      <c r="L8" s="1"/>
+      <c r="P8" s="1">
         <v>250.0</v>
       </c>
-      <c r="Q8" s="1"/>
+      <c r="S8" s="1"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="4">
         <f t="shared" si="1"/>
-        <v>43255</v>
+        <v>43263</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>43620</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>43628</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" t="s">
         <v>38</v>
       </c>
-      <c r="H9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="1">
         <v>166.0</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="S9" s="1">
         <v>166.0</v>
       </c>
     </row>
@@ -2952,7 +2978,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="3" max="18" width="14.43"/>
+    <col customWidth="1" min="3" max="20" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -2962,10 +2988,10 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -3007,58 +3033,58 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="4">
         <f t="shared" ref="A2:A9" si="1">TODAY()</f>
-        <v>43255</v>
+        <v>43263</v>
       </c>
       <c r="B2" s="4">
         <f t="shared" ref="B2:B9" si="2">A2 + 365</f>
-        <v>43620</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>43628</v>
       </c>
       <c r="E2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="G2" t="s">
         <v>25</v>
       </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
       <c r="I2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="5">
+        <v>27</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="5">
         <v>18.75</v>
       </c>
-      <c r="K2" s="5">
+      <c r="M2" s="5">
         <v>9.375</v>
       </c>
-      <c r="L2">
-        <v>0.0</v>
-      </c>
-      <c r="M2">
-        <v>0.0</v>
-      </c>
       <c r="N2">
         <v>0.0</v>
       </c>
@@ -3068,48 +3094,48 @@
       <c r="P2">
         <v>0.0</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="Q2">
+        <v>0.0</v>
+      </c>
+      <c r="R2">
+        <v>0.0</v>
+      </c>
+      <c r="S2" s="5">
         <v>18.75</v>
       </c>
-      <c r="R2">
+      <c r="T2">
         <v>0.0</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="4">
         <f t="shared" si="1"/>
-        <v>43255</v>
+        <v>43263</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" si="2"/>
-        <v>43620</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>43628</v>
       </c>
       <c r="E3" t="s">
         <v>30</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="G3" t="s">
         <v>31</v>
       </c>
-      <c r="J3">
-        <v>0.0</v>
-      </c>
-      <c r="K3">
-        <v>0.0</v>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" t="s">
+        <v>32</v>
       </c>
       <c r="L3">
         <v>0.0</v>
@@ -3117,119 +3143,121 @@
       <c r="M3">
         <v>0.0</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3">
+        <v>0.0</v>
+      </c>
+      <c r="O3">
+        <v>0.0</v>
+      </c>
+      <c r="P3" s="5">
         <v>31.25</v>
       </c>
-      <c r="O3">
-        <v>0.0</v>
-      </c>
-      <c r="P3">
-        <v>0.0</v>
-      </c>
       <c r="Q3">
         <v>0.0</v>
       </c>
       <c r="R3">
+        <v>0.0</v>
+      </c>
+      <c r="S3">
+        <v>0.0</v>
+      </c>
+      <c r="T3">
         <v>0.0</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="4">
         <f t="shared" si="1"/>
-        <v>43255</v>
+        <v>43263</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>43620</v>
-      </c>
-      <c r="C4" t="s">
+        <v>43628</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K4">
-        <v>0.0</v>
-      </c>
-      <c r="L4">
+      <c r="L4" s="5">
         <v>0.0</v>
       </c>
       <c r="M4">
         <v>0.0</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4">
+        <v>0.0</v>
+      </c>
+      <c r="O4">
+        <v>0.0</v>
+      </c>
+      <c r="P4" s="5">
         <v>31.25</v>
       </c>
-      <c r="O4">
-        <v>0.0</v>
-      </c>
-      <c r="P4">
-        <v>0.0</v>
-      </c>
-      <c r="Q4" s="5">
+      <c r="Q4">
         <v>0.0</v>
       </c>
       <c r="R4">
+        <v>0.0</v>
+      </c>
+      <c r="S4" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="T4">
         <v>0.0</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="4">
         <f t="shared" si="1"/>
-        <v>43255</v>
+        <v>43263</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>43620</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>43628</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="5">
+        <v>27</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="5">
         <v>20.75</v>
       </c>
-      <c r="K5">
-        <v>0.0</v>
-      </c>
-      <c r="L5">
-        <v>0.0</v>
-      </c>
       <c r="M5">
         <v>0.0</v>
       </c>
@@ -3242,55 +3270,55 @@
       <c r="P5">
         <v>0.0</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5">
+        <v>0.0</v>
+      </c>
+      <c r="R5">
+        <v>0.0</v>
+      </c>
+      <c r="S5" s="5">
         <v>20.75</v>
       </c>
-      <c r="R5">
+      <c r="T5">
         <v>0.0</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="4">
         <f t="shared" si="1"/>
-        <v>43255</v>
+        <v>43263</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>43620</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>43628</v>
       </c>
       <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="H6" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="5">
+      <c r="I6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="5">
         <v>18.75</v>
       </c>
-      <c r="K6" s="5">
+      <c r="M6" s="5">
         <v>9.375</v>
       </c>
-      <c r="L6">
-        <v>0.0</v>
-      </c>
-      <c r="M6">
-        <v>0.0</v>
-      </c>
       <c r="N6">
         <v>0.0</v>
       </c>
@@ -3300,48 +3328,48 @@
       <c r="P6">
         <v>0.0</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="Q6">
+        <v>0.0</v>
+      </c>
+      <c r="R6">
+        <v>0.0</v>
+      </c>
+      <c r="S6" s="5">
         <v>18.75</v>
       </c>
-      <c r="R6">
+      <c r="T6">
         <v>0.0</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="4">
         <f t="shared" si="1"/>
-        <v>43255</v>
+        <v>43263</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>43620</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>43628</v>
       </c>
       <c r="E7" t="s">
         <v>30</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
       </c>
       <c r="I7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7">
-        <v>0.0</v>
-      </c>
-      <c r="K7">
-        <v>0.0</v>
+        <v>40</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" t="s">
+        <v>32</v>
       </c>
       <c r="L7">
         <v>0.0</v>
@@ -3349,119 +3377,121 @@
       <c r="M7">
         <v>0.0</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7">
+        <v>0.0</v>
+      </c>
+      <c r="O7">
+        <v>0.0</v>
+      </c>
+      <c r="P7" s="5">
         <v>31.25</v>
       </c>
-      <c r="O7">
-        <v>0.0</v>
-      </c>
-      <c r="P7">
-        <v>0.0</v>
-      </c>
       <c r="Q7">
         <v>0.0</v>
       </c>
       <c r="R7">
+        <v>0.0</v>
+      </c>
+      <c r="S7">
+        <v>0.0</v>
+      </c>
+      <c r="T7">
         <v>0.0</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="4">
         <f t="shared" si="1"/>
-        <v>43255</v>
+        <v>43263</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>43620</v>
-      </c>
-      <c r="C8" t="s">
+        <v>43628</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K8">
-        <v>0.0</v>
-      </c>
-      <c r="L8">
+      <c r="L8" s="5">
         <v>0.0</v>
       </c>
       <c r="M8">
         <v>0.0</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8">
+        <v>0.0</v>
+      </c>
+      <c r="O8">
+        <v>0.0</v>
+      </c>
+      <c r="P8" s="5">
         <v>31.25</v>
       </c>
-      <c r="O8">
-        <v>0.0</v>
-      </c>
-      <c r="P8">
-        <v>0.0</v>
-      </c>
-      <c r="Q8" s="5">
+      <c r="Q8">
         <v>0.0</v>
       </c>
       <c r="R8">
+        <v>0.0</v>
+      </c>
+      <c r="S8" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="T8">
         <v>0.0</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="4">
         <f t="shared" si="1"/>
-        <v>43255</v>
+        <v>43263</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>43620</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>43628</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J9" s="5">
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="5">
         <v>20.75</v>
       </c>
-      <c r="K9">
-        <v>0.0</v>
-      </c>
-      <c r="L9">
-        <v>0.0</v>
-      </c>
       <c r="M9">
         <v>0.0</v>
       </c>
@@ -3474,10 +3504,16 @@
       <c r="P9">
         <v>0.0</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="Q9">
+        <v>0.0</v>
+      </c>
+      <c r="R9">
+        <v>0.0</v>
+      </c>
+      <c r="S9" s="5">
         <v>20.75</v>
       </c>
-      <c r="R9">
+      <c r="T9">
         <v>0.0</v>
       </c>
     </row>
@@ -4487,7 +4523,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="3" max="18" width="14.43"/>
+    <col customWidth="1" min="3" max="20" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -4497,10 +4533,10 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -4542,58 +4578,58 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="4">
         <f t="shared" ref="A2:A9" si="1">TODAY()</f>
-        <v>43255</v>
+        <v>43263</v>
       </c>
       <c r="B2" s="4">
         <f t="shared" ref="B2:B9" si="2">A2 + 365</f>
-        <v>43620</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>43628</v>
       </c>
       <c r="E2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="G2" t="s">
         <v>25</v>
       </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
       <c r="I2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="5">
+        <v>27</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="5">
         <v>18.75</v>
       </c>
-      <c r="K2" s="5">
+      <c r="M2" s="5">
         <v>9.375</v>
       </c>
-      <c r="L2">
-        <v>0.0</v>
-      </c>
-      <c r="M2">
-        <v>0.0</v>
-      </c>
       <c r="N2">
         <v>0.0</v>
       </c>
@@ -4603,48 +4639,48 @@
       <c r="P2">
         <v>0.0</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="Q2">
+        <v>0.0</v>
+      </c>
+      <c r="R2">
+        <v>0.0</v>
+      </c>
+      <c r="S2" s="5">
         <v>18.75</v>
       </c>
-      <c r="R2">
+      <c r="T2">
         <v>0.0</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="4">
         <f t="shared" si="1"/>
-        <v>43255</v>
+        <v>43263</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" si="2"/>
-        <v>43620</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>43628</v>
       </c>
       <c r="E3" t="s">
         <v>30</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="G3" t="s">
         <v>31</v>
       </c>
-      <c r="J3">
-        <v>0.0</v>
-      </c>
-      <c r="K3">
-        <v>0.0</v>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" t="s">
+        <v>32</v>
       </c>
       <c r="L3">
         <v>0.0</v>
@@ -4652,119 +4688,121 @@
       <c r="M3">
         <v>0.0</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3">
+        <v>0.0</v>
+      </c>
+      <c r="O3">
+        <v>0.0</v>
+      </c>
+      <c r="P3" s="5">
         <v>31.25</v>
       </c>
-      <c r="O3">
-        <v>0.0</v>
-      </c>
-      <c r="P3">
-        <v>0.0</v>
-      </c>
       <c r="Q3">
         <v>0.0</v>
       </c>
       <c r="R3">
+        <v>0.0</v>
+      </c>
+      <c r="S3">
+        <v>0.0</v>
+      </c>
+      <c r="T3">
         <v>0.0</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="4">
         <f t="shared" si="1"/>
-        <v>43255</v>
+        <v>43263</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>43620</v>
-      </c>
-      <c r="C4" t="s">
+        <v>43628</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K4">
-        <v>0.0</v>
-      </c>
-      <c r="L4">
+      <c r="L4" s="5">
         <v>0.0</v>
       </c>
       <c r="M4">
         <v>0.0</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4">
+        <v>0.0</v>
+      </c>
+      <c r="O4">
+        <v>0.0</v>
+      </c>
+      <c r="P4" s="5">
         <v>31.25</v>
       </c>
-      <c r="O4">
-        <v>0.0</v>
-      </c>
-      <c r="P4">
-        <v>0.0</v>
-      </c>
-      <c r="Q4" s="5">
+      <c r="Q4">
         <v>0.0</v>
       </c>
       <c r="R4">
+        <v>0.0</v>
+      </c>
+      <c r="S4" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="T4">
         <v>0.0</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="4">
         <f t="shared" si="1"/>
-        <v>43255</v>
+        <v>43263</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>43620</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>43628</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="5">
+        <v>27</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="5">
         <v>20.75</v>
       </c>
-      <c r="K5">
-        <v>0.0</v>
-      </c>
-      <c r="L5">
-        <v>0.0</v>
-      </c>
       <c r="M5">
         <v>0.0</v>
       </c>
@@ -4777,55 +4815,55 @@
       <c r="P5">
         <v>0.0</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5">
+        <v>0.0</v>
+      </c>
+      <c r="R5">
+        <v>0.0</v>
+      </c>
+      <c r="S5" s="5">
         <v>20.75</v>
       </c>
-      <c r="R5">
+      <c r="T5">
         <v>0.0</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="4">
         <f t="shared" si="1"/>
-        <v>43255</v>
+        <v>43263</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>43620</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>43628</v>
       </c>
       <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="H6" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="5">
+      <c r="I6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="5">
         <v>18.75</v>
       </c>
-      <c r="K6" s="5">
+      <c r="M6" s="5">
         <v>9.375</v>
       </c>
-      <c r="L6">
-        <v>0.0</v>
-      </c>
-      <c r="M6">
-        <v>0.0</v>
-      </c>
       <c r="N6">
         <v>0.0</v>
       </c>
@@ -4835,48 +4873,48 @@
       <c r="P6">
         <v>0.0</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="Q6">
+        <v>0.0</v>
+      </c>
+      <c r="R6">
+        <v>0.0</v>
+      </c>
+      <c r="S6" s="5">
         <v>18.75</v>
       </c>
-      <c r="R6">
+      <c r="T6">
         <v>0.0</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="4">
         <f t="shared" si="1"/>
-        <v>43255</v>
+        <v>43263</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>43620</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>43628</v>
       </c>
       <c r="E7" t="s">
         <v>30</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
       </c>
       <c r="I7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7">
-        <v>0.0</v>
-      </c>
-      <c r="K7">
-        <v>0.0</v>
+        <v>40</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" t="s">
+        <v>32</v>
       </c>
       <c r="L7">
         <v>0.0</v>
@@ -4884,119 +4922,121 @@
       <c r="M7">
         <v>0.0</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7">
+        <v>0.0</v>
+      </c>
+      <c r="O7">
+        <v>0.0</v>
+      </c>
+      <c r="P7" s="5">
         <v>31.25</v>
       </c>
-      <c r="O7">
-        <v>0.0</v>
-      </c>
-      <c r="P7">
-        <v>0.0</v>
-      </c>
       <c r="Q7">
         <v>0.0</v>
       </c>
       <c r="R7">
+        <v>0.0</v>
+      </c>
+      <c r="S7">
+        <v>0.0</v>
+      </c>
+      <c r="T7">
         <v>0.0</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="4">
         <f t="shared" si="1"/>
-        <v>43255</v>
+        <v>43263</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>43620</v>
-      </c>
-      <c r="C8" t="s">
+        <v>43628</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K8">
-        <v>0.0</v>
-      </c>
-      <c r="L8">
+      <c r="L8" s="5">
         <v>0.0</v>
       </c>
       <c r="M8">
         <v>0.0</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8">
+        <v>0.0</v>
+      </c>
+      <c r="O8">
+        <v>0.0</v>
+      </c>
+      <c r="P8" s="5">
         <v>31.25</v>
       </c>
-      <c r="O8">
-        <v>0.0</v>
-      </c>
-      <c r="P8">
-        <v>0.0</v>
-      </c>
-      <c r="Q8" s="5">
+      <c r="Q8">
         <v>0.0</v>
       </c>
       <c r="R8">
+        <v>0.0</v>
+      </c>
+      <c r="S8" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="T8">
         <v>0.0</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="4">
         <f t="shared" si="1"/>
-        <v>43255</v>
+        <v>43263</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>43620</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>43628</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J9" s="5">
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="5">
         <v>20.75</v>
       </c>
-      <c r="K9">
-        <v>0.0</v>
-      </c>
-      <c r="L9">
-        <v>0.0</v>
-      </c>
       <c r="M9">
         <v>0.0</v>
       </c>
@@ -5009,10 +5049,16 @@
       <c r="P9">
         <v>0.0</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="Q9">
+        <v>0.0</v>
+      </c>
+      <c r="R9">
+        <v>0.0</v>
+      </c>
+      <c r="S9" s="5">
         <v>20.75</v>
       </c>
-      <c r="R9">
+      <c r="T9">
         <v>0.0</v>
       </c>
     </row>

--- a/db/dummydata/ez_local_charges.xlsx
+++ b/db/dummydata/ez_local_charges.xlsx
@@ -25,7 +25,7 @@
     <t>DESTINATION</t>
   </si>
   <si>
-    <t>SERVICE LEVEL</t>
+    <t>SERVICE_LEVEL</t>
   </si>
   <si>
     <t>FEE</t>
@@ -85,9 +85,6 @@
     <t>Terminal Charge</t>
   </si>
   <si>
-    <t>rail</t>
-  </si>
-  <si>
     <t>ocean</t>
   </si>
   <si>
@@ -104,6 +101,9 @@
   </si>
   <si>
     <t>PER_CBM_TON</t>
+  </si>
+  <si>
+    <t>rail</t>
   </si>
   <si>
     <t>Customs Clearance</t>
@@ -179,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -188,6 +188,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left"/>
@@ -241,7 +244,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -289,7 +292,7 @@
       <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
       <c r="U1" s="2" t="s">
@@ -300,34 +303,34 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <f t="shared" ref="A2:A9" si="1">TODAY()</f>
-        <v>43263</v>
-      </c>
-      <c r="B2" s="4">
+        <v>43264</v>
+      </c>
+      <c r="B2" s="5">
         <f t="shared" ref="B2:B9" si="2">A2 + 365</f>
-        <v>43628</v>
+        <v>43629</v>
       </c>
       <c r="E2" t="s">
         <v>22</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>25</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="L2" s="1">
         <v>150.0</v>
@@ -340,31 +343,31 @@
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <f t="shared" si="1"/>
-        <v>43263</v>
-      </c>
-      <c r="B3" s="4">
+        <v>43264</v>
+      </c>
+      <c r="B3" s="5">
         <f t="shared" si="2"/>
-        <v>43628</v>
+        <v>43629</v>
       </c>
       <c r="E3" t="s">
         <v>30</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
         <v>31</v>
       </c>
       <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="K3" t="s">
         <v>32</v>
@@ -374,31 +377,31 @@
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <f t="shared" si="1"/>
-        <v>43263</v>
-      </c>
-      <c r="B4" s="4">
+        <v>43264</v>
+      </c>
+      <c r="B4" s="5">
         <f t="shared" si="2"/>
-        <v>43628</v>
+        <v>43629</v>
       </c>
       <c r="E4" t="s">
         <v>34</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
         <v>35</v>
       </c>
       <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>32</v>
@@ -410,13 +413,13 @@
       <c r="S4" s="1"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <f t="shared" si="1"/>
-        <v>43263</v>
-      </c>
-      <c r="B5" s="4">
+        <v>43264</v>
+      </c>
+      <c r="B5" s="5">
         <f t="shared" si="2"/>
-        <v>43628</v>
+        <v>43629</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -424,16 +427,16 @@
         <v>36</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="J5" t="s">
         <v>38</v>
@@ -449,34 +452,34 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="4">
+      <c r="A6" s="5">
         <f t="shared" si="1"/>
-        <v>43263</v>
-      </c>
-      <c r="B6" s="4">
+        <v>43264</v>
+      </c>
+      <c r="B6" s="5">
         <f t="shared" si="2"/>
-        <v>43628</v>
+        <v>43629</v>
       </c>
       <c r="E6" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
         <v>24</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>25</v>
-      </c>
-      <c r="H6" t="s">
-        <v>26</v>
       </c>
       <c r="I6" t="s">
         <v>40</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="L6" s="1">
         <v>150.0</v>
@@ -489,31 +492,31 @@
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="4">
+      <c r="A7" s="5">
         <f t="shared" si="1"/>
-        <v>43263</v>
-      </c>
-      <c r="B7" s="4">
+        <v>43264</v>
+      </c>
+      <c r="B7" s="5">
         <f t="shared" si="2"/>
-        <v>43628</v>
+        <v>43629</v>
       </c>
       <c r="E7" t="s">
         <v>30</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
         <v>31</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I7" t="s">
         <v>40</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K7" t="s">
         <v>32</v>
@@ -523,31 +526,31 @@
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <f t="shared" si="1"/>
-        <v>43263</v>
-      </c>
-      <c r="B8" s="4">
+        <v>43264</v>
+      </c>
+      <c r="B8" s="5">
         <f t="shared" si="2"/>
-        <v>43628</v>
+        <v>43629</v>
       </c>
       <c r="E8" t="s">
         <v>34</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G8" t="s">
         <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I8" t="s">
         <v>40</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>32</v>
@@ -559,13 +562,13 @@
       <c r="S8" s="1"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="4">
+      <c r="A9" s="5">
         <f t="shared" si="1"/>
-        <v>43263</v>
-      </c>
-      <c r="B9" s="4">
+        <v>43264</v>
+      </c>
+      <c r="B9" s="5">
         <f t="shared" si="2"/>
-        <v>43628</v>
+        <v>43629</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -573,13 +576,13 @@
         <v>36</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I9" t="s">
         <v>40</v>
@@ -1616,7 +1619,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -1664,7 +1667,7 @@
       <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
       <c r="U1" s="2" t="s">
@@ -1675,34 +1678,34 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <f t="shared" ref="A2:A9" si="1">TODAY()</f>
-        <v>43263</v>
-      </c>
-      <c r="B2" s="4">
+        <v>43264</v>
+      </c>
+      <c r="B2" s="5">
         <f t="shared" ref="B2:B9" si="2">A2 + 365</f>
-        <v>43628</v>
+        <v>43629</v>
       </c>
       <c r="E2" t="s">
         <v>22</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
         <v>25</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="L2" s="1">
         <v>150.0</v>
@@ -1715,31 +1718,31 @@
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <f t="shared" si="1"/>
-        <v>43263</v>
-      </c>
-      <c r="B3" s="4">
+        <v>43264</v>
+      </c>
+      <c r="B3" s="5">
         <f t="shared" si="2"/>
-        <v>43628</v>
+        <v>43629</v>
       </c>
       <c r="E3" t="s">
         <v>30</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
         <v>31</v>
       </c>
       <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="K3" t="s">
         <v>32</v>
@@ -1749,31 +1752,31 @@
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <f t="shared" si="1"/>
-        <v>43263</v>
-      </c>
-      <c r="B4" s="4">
+        <v>43264</v>
+      </c>
+      <c r="B4" s="5">
         <f t="shared" si="2"/>
-        <v>43628</v>
+        <v>43629</v>
       </c>
       <c r="E4" t="s">
         <v>34</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
         <v>35</v>
       </c>
       <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>32</v>
@@ -1785,13 +1788,13 @@
       <c r="S4" s="1"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <f t="shared" si="1"/>
-        <v>43263</v>
-      </c>
-      <c r="B5" s="4">
+        <v>43264</v>
+      </c>
+      <c r="B5" s="5">
         <f t="shared" si="2"/>
-        <v>43628</v>
+        <v>43629</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1799,16 +1802,16 @@
         <v>36</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="J5" t="s">
         <v>38</v>
@@ -1824,34 +1827,34 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="4">
+      <c r="A6" s="5">
         <f t="shared" si="1"/>
-        <v>43263</v>
-      </c>
-      <c r="B6" s="4">
+        <v>43264</v>
+      </c>
+      <c r="B6" s="5">
         <f t="shared" si="2"/>
-        <v>43628</v>
+        <v>43629</v>
       </c>
       <c r="E6" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
         <v>25</v>
-      </c>
-      <c r="H6" t="s">
-        <v>26</v>
       </c>
       <c r="I6" t="s">
         <v>40</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="L6" s="1">
         <v>150.0</v>
@@ -1864,31 +1867,31 @@
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="4">
+      <c r="A7" s="5">
         <f t="shared" si="1"/>
-        <v>43263</v>
-      </c>
-      <c r="B7" s="4">
+        <v>43264</v>
+      </c>
+      <c r="B7" s="5">
         <f t="shared" si="2"/>
-        <v>43628</v>
+        <v>43629</v>
       </c>
       <c r="E7" t="s">
         <v>30</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G7" t="s">
         <v>31</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I7" t="s">
         <v>40</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K7" t="s">
         <v>32</v>
@@ -1898,31 +1901,31 @@
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <f t="shared" si="1"/>
-        <v>43263</v>
-      </c>
-      <c r="B8" s="4">
+        <v>43264</v>
+      </c>
+      <c r="B8" s="5">
         <f t="shared" si="2"/>
-        <v>43628</v>
+        <v>43629</v>
       </c>
       <c r="E8" t="s">
         <v>34</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
         <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I8" t="s">
         <v>40</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>32</v>
@@ -1934,13 +1937,13 @@
       <c r="S8" s="1"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="4">
+      <c r="A9" s="5">
         <f t="shared" si="1"/>
-        <v>43263</v>
-      </c>
-      <c r="B9" s="4">
+        <v>43264</v>
+      </c>
+      <c r="B9" s="5">
         <f t="shared" si="2"/>
-        <v>43628</v>
+        <v>43629</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1948,13 +1951,13 @@
         <v>36</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I9" t="s">
         <v>40</v>
@@ -2991,7 +2994,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -3039,7 +3042,7 @@
       <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
       <c r="U1" s="2" t="s">
@@ -3050,39 +3053,39 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <f t="shared" ref="A2:A9" si="1">TODAY()</f>
-        <v>43263</v>
-      </c>
-      <c r="B2" s="4">
+        <v>43264</v>
+      </c>
+      <c r="B2" s="5">
         <f t="shared" ref="B2:B9" si="2">A2 + 365</f>
-        <v>43628</v>
+        <v>43629</v>
       </c>
       <c r="E2" t="s">
         <v>22</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
         <v>25</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" s="5">
+        <v>28</v>
+      </c>
+      <c r="L2" s="6">
         <v>18.75</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="6">
         <v>9.375</v>
       </c>
       <c r="N2">
@@ -3100,7 +3103,7 @@
       <c r="R2">
         <v>0.0</v>
       </c>
-      <c r="S2" s="5">
+      <c r="S2" s="6">
         <v>18.75</v>
       </c>
       <c r="T2">
@@ -3108,28 +3111,28 @@
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <f t="shared" si="1"/>
-        <v>43263</v>
-      </c>
-      <c r="B3" s="4">
+        <v>43264</v>
+      </c>
+      <c r="B3" s="5">
         <f t="shared" si="2"/>
-        <v>43628</v>
+        <v>43629</v>
       </c>
       <c r="E3" t="s">
         <v>30</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
         <v>31</v>
       </c>
       <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>33</v>
@@ -3149,7 +3152,7 @@
       <c r="O3">
         <v>0.0</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3" s="6">
         <v>31.25</v>
       </c>
       <c r="Q3">
@@ -3166,28 +3169,28 @@
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <f t="shared" si="1"/>
-        <v>43263</v>
-      </c>
-      <c r="B4" s="4">
+        <v>43264</v>
+      </c>
+      <c r="B4" s="5">
         <f t="shared" si="2"/>
-        <v>43628</v>
+        <v>43629</v>
       </c>
       <c r="E4" t="s">
         <v>34</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
         <v>35</v>
       </c>
       <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>33</v>
@@ -3195,7 +3198,7 @@
       <c r="K4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="6">
         <v>0.0</v>
       </c>
       <c r="M4">
@@ -3207,7 +3210,7 @@
       <c r="O4">
         <v>0.0</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P4" s="6">
         <v>31.25</v>
       </c>
       <c r="Q4">
@@ -3216,7 +3219,7 @@
       <c r="R4">
         <v>0.0</v>
       </c>
-      <c r="S4" s="5">
+      <c r="S4" s="6">
         <v>0.0</v>
       </c>
       <c r="T4">
@@ -3224,13 +3227,13 @@
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <f t="shared" si="1"/>
-        <v>43263</v>
-      </c>
-      <c r="B5" s="4">
+        <v>43264</v>
+      </c>
+      <c r="B5" s="5">
         <f t="shared" si="2"/>
-        <v>43628</v>
+        <v>43629</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -3238,16 +3241,16 @@
         <v>36</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>33</v>
@@ -3255,7 +3258,7 @@
       <c r="K5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="6">
         <v>20.75</v>
       </c>
       <c r="M5">
@@ -3276,7 +3279,7 @@
       <c r="R5">
         <v>0.0</v>
       </c>
-      <c r="S5" s="5">
+      <c r="S5" s="6">
         <v>20.75</v>
       </c>
       <c r="T5">
@@ -3284,25 +3287,25 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="4">
+      <c r="A6" s="5">
         <f t="shared" si="1"/>
-        <v>43263</v>
-      </c>
-      <c r="B6" s="4">
+        <v>43264</v>
+      </c>
+      <c r="B6" s="5">
         <f t="shared" si="2"/>
-        <v>43628</v>
+        <v>43629</v>
       </c>
       <c r="E6" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
         <v>25</v>
-      </c>
-      <c r="H6" t="s">
-        <v>26</v>
       </c>
       <c r="I6" t="s">
         <v>40</v>
@@ -3311,12 +3314,12 @@
         <v>33</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="5">
+        <v>28</v>
+      </c>
+      <c r="L6" s="6">
         <v>18.75</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="6">
         <v>9.375</v>
       </c>
       <c r="N6">
@@ -3334,7 +3337,7 @@
       <c r="R6">
         <v>0.0</v>
       </c>
-      <c r="S6" s="5">
+      <c r="S6" s="6">
         <v>18.75</v>
       </c>
       <c r="T6">
@@ -3342,25 +3345,25 @@
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="4">
+      <c r="A7" s="5">
         <f t="shared" si="1"/>
-        <v>43263</v>
-      </c>
-      <c r="B7" s="4">
+        <v>43264</v>
+      </c>
+      <c r="B7" s="5">
         <f t="shared" si="2"/>
-        <v>43628</v>
+        <v>43629</v>
       </c>
       <c r="E7" t="s">
         <v>30</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G7" t="s">
         <v>31</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I7" t="s">
         <v>40</v>
@@ -3383,7 +3386,7 @@
       <c r="O7">
         <v>0.0</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="6">
         <v>31.25</v>
       </c>
       <c r="Q7">
@@ -3400,25 +3403,25 @@
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <f t="shared" si="1"/>
-        <v>43263</v>
-      </c>
-      <c r="B8" s="4">
+        <v>43264</v>
+      </c>
+      <c r="B8" s="5">
         <f t="shared" si="2"/>
-        <v>43628</v>
+        <v>43629</v>
       </c>
       <c r="E8" t="s">
         <v>34</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
         <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I8" t="s">
         <v>40</v>
@@ -3429,7 +3432,7 @@
       <c r="K8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="6">
         <v>0.0</v>
       </c>
       <c r="M8">
@@ -3441,7 +3444,7 @@
       <c r="O8">
         <v>0.0</v>
       </c>
-      <c r="P8" s="5">
+      <c r="P8" s="6">
         <v>31.25</v>
       </c>
       <c r="Q8">
@@ -3450,7 +3453,7 @@
       <c r="R8">
         <v>0.0</v>
       </c>
-      <c r="S8" s="5">
+      <c r="S8" s="6">
         <v>0.0</v>
       </c>
       <c r="T8">
@@ -3458,13 +3461,13 @@
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="4">
+      <c r="A9" s="5">
         <f t="shared" si="1"/>
-        <v>43263</v>
-      </c>
-      <c r="B9" s="4">
+        <v>43264</v>
+      </c>
+      <c r="B9" s="5">
         <f t="shared" si="2"/>
-        <v>43628</v>
+        <v>43629</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -3472,13 +3475,13 @@
         <v>36</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I9" t="s">
         <v>40</v>
@@ -3489,7 +3492,7 @@
       <c r="K9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="6">
         <v>20.75</v>
       </c>
       <c r="M9">
@@ -3510,7 +3513,7 @@
       <c r="R9">
         <v>0.0</v>
       </c>
-      <c r="S9" s="5">
+      <c r="S9" s="6">
         <v>20.75</v>
       </c>
       <c r="T9">
@@ -4536,7 +4539,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -4584,7 +4587,7 @@
       <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
       <c r="U1" s="2" t="s">
@@ -4595,39 +4598,39 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <f t="shared" ref="A2:A9" si="1">TODAY()</f>
-        <v>43263</v>
-      </c>
-      <c r="B2" s="4">
+        <v>43264</v>
+      </c>
+      <c r="B2" s="5">
         <f t="shared" ref="B2:B9" si="2">A2 + 365</f>
-        <v>43628</v>
+        <v>43629</v>
       </c>
       <c r="E2" t="s">
         <v>22</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
         <v>25</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" s="5">
+        <v>28</v>
+      </c>
+      <c r="L2" s="6">
         <v>18.75</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="6">
         <v>9.375</v>
       </c>
       <c r="N2">
@@ -4645,7 +4648,7 @@
       <c r="R2">
         <v>0.0</v>
       </c>
-      <c r="S2" s="5">
+      <c r="S2" s="6">
         <v>18.75</v>
       </c>
       <c r="T2">
@@ -4653,28 +4656,28 @@
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <f t="shared" si="1"/>
-        <v>43263</v>
-      </c>
-      <c r="B3" s="4">
+        <v>43264</v>
+      </c>
+      <c r="B3" s="5">
         <f t="shared" si="2"/>
-        <v>43628</v>
+        <v>43629</v>
       </c>
       <c r="E3" t="s">
         <v>30</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
         <v>31</v>
       </c>
       <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>33</v>
@@ -4694,7 +4697,7 @@
       <c r="O3">
         <v>0.0</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3" s="6">
         <v>31.25</v>
       </c>
       <c r="Q3">
@@ -4711,28 +4714,28 @@
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <f t="shared" si="1"/>
-        <v>43263</v>
-      </c>
-      <c r="B4" s="4">
+        <v>43264</v>
+      </c>
+      <c r="B4" s="5">
         <f t="shared" si="2"/>
-        <v>43628</v>
+        <v>43629</v>
       </c>
       <c r="E4" t="s">
         <v>34</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
         <v>35</v>
       </c>
       <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>33</v>
@@ -4740,7 +4743,7 @@
       <c r="K4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="6">
         <v>0.0</v>
       </c>
       <c r="M4">
@@ -4752,7 +4755,7 @@
       <c r="O4">
         <v>0.0</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P4" s="6">
         <v>31.25</v>
       </c>
       <c r="Q4">
@@ -4761,7 +4764,7 @@
       <c r="R4">
         <v>0.0</v>
       </c>
-      <c r="S4" s="5">
+      <c r="S4" s="6">
         <v>0.0</v>
       </c>
       <c r="T4">
@@ -4769,13 +4772,13 @@
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <f t="shared" si="1"/>
-        <v>43263</v>
-      </c>
-      <c r="B5" s="4">
+        <v>43264</v>
+      </c>
+      <c r="B5" s="5">
         <f t="shared" si="2"/>
-        <v>43628</v>
+        <v>43629</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -4783,16 +4786,16 @@
         <v>36</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>33</v>
@@ -4800,7 +4803,7 @@
       <c r="K5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="6">
         <v>20.75</v>
       </c>
       <c r="M5">
@@ -4821,7 +4824,7 @@
       <c r="R5">
         <v>0.0</v>
       </c>
-      <c r="S5" s="5">
+      <c r="S5" s="6">
         <v>20.75</v>
       </c>
       <c r="T5">
@@ -4829,25 +4832,25 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="4">
+      <c r="A6" s="5">
         <f t="shared" si="1"/>
-        <v>43263</v>
-      </c>
-      <c r="B6" s="4">
+        <v>43264</v>
+      </c>
+      <c r="B6" s="5">
         <f t="shared" si="2"/>
-        <v>43628</v>
+        <v>43629</v>
       </c>
       <c r="E6" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
         <v>25</v>
-      </c>
-      <c r="H6" t="s">
-        <v>26</v>
       </c>
       <c r="I6" t="s">
         <v>40</v>
@@ -4856,12 +4859,12 @@
         <v>33</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="5">
+        <v>28</v>
+      </c>
+      <c r="L6" s="6">
         <v>18.75</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="6">
         <v>9.375</v>
       </c>
       <c r="N6">
@@ -4879,7 +4882,7 @@
       <c r="R6">
         <v>0.0</v>
       </c>
-      <c r="S6" s="5">
+      <c r="S6" s="6">
         <v>18.75</v>
       </c>
       <c r="T6">
@@ -4887,25 +4890,25 @@
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="4">
+      <c r="A7" s="5">
         <f t="shared" si="1"/>
-        <v>43263</v>
-      </c>
-      <c r="B7" s="4">
+        <v>43264</v>
+      </c>
+      <c r="B7" s="5">
         <f t="shared" si="2"/>
-        <v>43628</v>
+        <v>43629</v>
       </c>
       <c r="E7" t="s">
         <v>30</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G7" t="s">
         <v>31</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I7" t="s">
         <v>40</v>
@@ -4928,7 +4931,7 @@
       <c r="O7">
         <v>0.0</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="6">
         <v>31.25</v>
       </c>
       <c r="Q7">
@@ -4945,25 +4948,25 @@
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <f t="shared" si="1"/>
-        <v>43263</v>
-      </c>
-      <c r="B8" s="4">
+        <v>43264</v>
+      </c>
+      <c r="B8" s="5">
         <f t="shared" si="2"/>
-        <v>43628</v>
+        <v>43629</v>
       </c>
       <c r="E8" t="s">
         <v>34</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
         <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I8" t="s">
         <v>40</v>
@@ -4974,7 +4977,7 @@
       <c r="K8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="6">
         <v>0.0</v>
       </c>
       <c r="M8">
@@ -4986,7 +4989,7 @@
       <c r="O8">
         <v>0.0</v>
       </c>
-      <c r="P8" s="5">
+      <c r="P8" s="6">
         <v>31.25</v>
       </c>
       <c r="Q8">
@@ -4995,7 +4998,7 @@
       <c r="R8">
         <v>0.0</v>
       </c>
-      <c r="S8" s="5">
+      <c r="S8" s="6">
         <v>0.0</v>
       </c>
       <c r="T8">
@@ -5003,13 +5006,13 @@
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="4">
+      <c r="A9" s="5">
         <f t="shared" si="1"/>
-        <v>43263</v>
-      </c>
-      <c r="B9" s="4">
+        <v>43264</v>
+      </c>
+      <c r="B9" s="5">
         <f t="shared" si="2"/>
-        <v>43628</v>
+        <v>43629</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -5017,13 +5020,13 @@
         <v>36</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I9" t="s">
         <v>40</v>
@@ -5034,7 +5037,7 @@
       <c r="K9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="6">
         <v>20.75</v>
       </c>
       <c r="M9">
@@ -5055,7 +5058,7 @@
       <c r="R9">
         <v>0.0</v>
       </c>
-      <c r="S9" s="5">
+      <c r="S9" s="6">
         <v>20.75</v>
       </c>
       <c r="T9">

--- a/db/dummydata/ez_local_charges.xlsx
+++ b/db/dummydata/ez_local_charges.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="56">
   <si>
     <t>EFFECTIVE_DATE</t>
   </si>
@@ -85,7 +85,10 @@
     <t>Terminal Charge</t>
   </si>
   <si>
-    <t>ocean</t>
+    <t>rail</t>
+  </si>
+  <si>
+    <t>PFU</t>
   </si>
   <si>
     <t>THC</t>
@@ -100,10 +103,19 @@
     <t>DKK</t>
   </si>
   <si>
+    <t>ocean</t>
+  </si>
+  <si>
     <t>PER_CBM_TON</t>
   </si>
   <si>
-    <t>rail</t>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>lcl</t>
+  </si>
+  <si>
+    <t>import</t>
   </si>
   <si>
     <t>Customs Clearance</t>
@@ -115,13 +127,28 @@
     <t>PER_SHIPMENT</t>
   </si>
   <si>
-    <t>EUR</t>
+    <t>Import Handling</t>
+  </si>
+  <si>
+    <t>IHDL</t>
   </si>
   <si>
     <t>Handling Fee</t>
   </si>
   <si>
     <t>HAF</t>
+  </si>
+  <si>
+    <t>Dalian</t>
+  </si>
+  <si>
+    <t>standard</t>
+  </si>
+  <si>
+    <t>Handling RTM</t>
+  </si>
+  <si>
+    <t>HDL</t>
   </si>
   <si>
     <t>Service Charge</t>
@@ -136,26 +163,51 @@
     <t>PER_TON</t>
   </si>
   <si>
+    <t>ONC</t>
+  </si>
+  <si>
     <t>Import</t>
+  </si>
+  <si>
+    <t>Stabrand THC</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>express</t>
+  </si>
+  <si>
+    <t>Shanghai</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <b/>
+    </font>
     <font>
       <b/>
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font/>
+    <font>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -179,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -192,11 +244,27 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="14" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="14" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -231,7 +299,28 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="3" max="20" width="14.43"/>
+    <col customWidth="1" min="1" max="1" width="17.29"/>
+    <col customWidth="1" min="2" max="2" width="18.29"/>
+    <col customWidth="1" min="3" max="3" width="13.57"/>
+    <col customWidth="1" min="4" max="4" width="16.29"/>
+    <col customWidth="1" min="5" max="5" width="17.43"/>
+    <col customWidth="1" min="6" max="6" width="6.14"/>
+    <col customWidth="1" min="7" max="7" width="11.14"/>
+    <col customWidth="1" min="8" max="8" width="12.29"/>
+    <col customWidth="1" min="9" max="9" width="11.43"/>
+    <col customWidth="1" min="10" max="10" width="11.71"/>
+    <col customWidth="1" min="11" max="11" width="15.57"/>
+    <col customWidth="1" min="12" max="12" width="5.0"/>
+    <col customWidth="1" min="13" max="13" width="5.43"/>
+    <col customWidth="1" min="14" max="14" width="4.0"/>
+    <col customWidth="1" min="15" max="15" width="5.57"/>
+    <col customWidth="1" min="16" max="16" width="10.71"/>
+    <col customWidth="1" min="17" max="17" width="5.29"/>
+    <col customWidth="1" min="18" max="18" width="12.0"/>
+    <col customWidth="1" min="19" max="19" width="9.43"/>
+    <col customWidth="1" min="20" max="20" width="4.43"/>
+    <col customWidth="1" min="21" max="21" width="12.29"/>
+    <col customWidth="1" min="22" max="22" width="13.0"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -247,52 +336,52 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="5" t="s">
         <v>19</v>
       </c>
       <c r="U1" s="2" t="s">
@@ -301,316 +390,657 @@
       <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="5">
-        <f t="shared" ref="A2:A9" si="1">TODAY()</f>
-        <v>43264</v>
-      </c>
-      <c r="B2" s="5">
-        <f t="shared" ref="B2:B9" si="2">A2 + 365</f>
-        <v>43629</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="A2" s="6">
+        <f t="shared" ref="A2:A15" si="1">TODAY()</f>
+        <v>43266</v>
+      </c>
+      <c r="B2" s="6">
+        <f t="shared" ref="B2:B15" si="2">A2 + 365</f>
+        <v>43631</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="1">
-        <v>150.0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>75.0</v>
-      </c>
-      <c r="S2" s="1">
-        <v>150.0</v>
+      <c r="F2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="M2" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="S2" s="7">
+        <v>50.0</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="5">
+      <c r="A3" s="6">
         <f t="shared" si="1"/>
-        <v>43264</v>
-      </c>
-      <c r="B3" s="5">
+        <v>43266</v>
+      </c>
+      <c r="B3" s="6">
         <f t="shared" si="2"/>
-        <v>43629</v>
-      </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" t="s">
+        <v>43631</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="1">
+      <c r="I3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" s="7">
         <v>250.0</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="5">
+      <c r="A4" s="6">
         <f t="shared" si="1"/>
-        <v>43264</v>
-      </c>
-      <c r="B4" s="5">
+        <v>43266</v>
+      </c>
+      <c r="B4" s="6">
         <f t="shared" si="2"/>
-        <v>43629</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="1" t="s">
+        <v>43631</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="1"/>
-      <c r="P4" s="1">
-        <v>250.0</v>
-      </c>
-      <c r="S4" s="1"/>
+      <c r="I4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="7">
+        <v>25.0</v>
+      </c>
+      <c r="M4" s="7">
+        <v>25.0</v>
+      </c>
+      <c r="S4" s="7">
+        <v>25.0</v>
+      </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <f t="shared" si="1"/>
-        <v>43264</v>
-      </c>
-      <c r="B5" s="5">
+        <v>43266</v>
+      </c>
+      <c r="B5" s="6">
         <f t="shared" si="2"/>
-        <v>43629</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" s="1">
-        <v>166.0</v>
-      </c>
-      <c r="S5" s="1">
-        <v>166.0</v>
+        <v>43631</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="7">
+        <v>50.0</v>
+      </c>
+      <c r="M5" s="7">
+        <v>50.0</v>
+      </c>
+      <c r="S5" s="7">
+        <v>50.0</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="5">
+      <c r="A6" s="6">
         <f t="shared" si="1"/>
-        <v>43264</v>
-      </c>
-      <c r="B6" s="5">
+        <v>43266</v>
+      </c>
+      <c r="B6" s="6">
         <f t="shared" si="2"/>
-        <v>43629</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" t="s">
+        <v>43631</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="1" t="s">
+      <c r="H6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="1">
-        <v>150.0</v>
-      </c>
-      <c r="M6" s="1">
-        <v>75.0</v>
-      </c>
-      <c r="S6" s="1">
-        <v>150.0</v>
+      <c r="K6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="7">
+        <v>135.0</v>
+      </c>
+      <c r="M6" s="7">
+        <v>45.0</v>
+      </c>
+      <c r="S6" s="7">
+        <v>45.0</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="5">
+      <c r="A7" s="6">
         <f t="shared" si="1"/>
-        <v>43264</v>
-      </c>
-      <c r="B7" s="5">
+        <v>43266</v>
+      </c>
+      <c r="B7" s="6">
         <f t="shared" si="2"/>
-        <v>43629</v>
-      </c>
-      <c r="E7" t="s">
+        <v>43631</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P7" s="1">
-        <v>250.0</v>
+      <c r="L7" s="7">
+        <v>25.0</v>
+      </c>
+      <c r="M7" s="7">
+        <v>25.0</v>
+      </c>
+      <c r="S7" s="7">
+        <v>25.0</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="5">
+      <c r="A8" s="6">
         <f t="shared" si="1"/>
-        <v>43264</v>
-      </c>
-      <c r="B8" s="5">
+        <v>43266</v>
+      </c>
+      <c r="B8" s="6">
         <f t="shared" si="2"/>
-        <v>43629</v>
-      </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" s="1" t="s">
+        <v>43631</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L8" s="1"/>
-      <c r="P8" s="1">
-        <v>250.0</v>
-      </c>
-      <c r="S8" s="1"/>
+      <c r="I8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="7">
+        <v>50.0</v>
+      </c>
+      <c r="M8" s="7">
+        <v>50.0</v>
+      </c>
+      <c r="S8" s="7">
+        <v>50.0</v>
+      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="5">
+      <c r="A9" s="6">
         <f t="shared" si="1"/>
-        <v>43264</v>
-      </c>
-      <c r="B9" s="5">
+        <v>43266</v>
+      </c>
+      <c r="B9" s="6">
         <f t="shared" si="2"/>
-        <v>43629</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" t="s">
+        <v>43631</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" t="s">
-        <v>38</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L9" s="1">
-        <v>166.0</v>
-      </c>
-      <c r="S9" s="1">
-        <v>166.0</v>
+      <c r="H9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="7">
+        <v>135.0</v>
+      </c>
+      <c r="M9" s="7">
+        <v>45.0</v>
+      </c>
+      <c r="S9" s="7">
+        <v>45.0</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="6">
+        <f t="shared" si="1"/>
+        <v>43266</v>
+      </c>
+      <c r="B10" s="6">
+        <f t="shared" si="2"/>
+        <v>43631</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="7">
+        <v>25.0</v>
+      </c>
+      <c r="M10" s="7">
+        <v>25.0</v>
+      </c>
+      <c r="S10" s="7">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="6">
+        <f t="shared" si="1"/>
+        <v>43266</v>
+      </c>
+      <c r="B11" s="6">
+        <f t="shared" si="2"/>
+        <v>43631</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="7">
+        <v>50.0</v>
+      </c>
+      <c r="M11" s="7">
+        <v>50.0</v>
+      </c>
+      <c r="S11" s="7">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="6">
+        <f t="shared" si="1"/>
+        <v>43266</v>
+      </c>
+      <c r="B12" s="6">
+        <f t="shared" si="2"/>
+        <v>43631</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="7">
+        <v>135.0</v>
+      </c>
+      <c r="M12" s="7">
+        <v>45.0</v>
+      </c>
+      <c r="S12" s="7">
+        <v>45.0</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="9">
+        <f t="shared" si="1"/>
+        <v>43266</v>
+      </c>
+      <c r="B13" s="9">
+        <f t="shared" si="2"/>
+        <v>43631</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" s="12">
+        <v>25.0</v>
+      </c>
+      <c r="M13" s="12">
+        <v>25.0</v>
+      </c>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="12">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="9">
+        <f t="shared" si="1"/>
+        <v>43266</v>
+      </c>
+      <c r="B14" s="9">
+        <f t="shared" si="2"/>
+        <v>43631</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" s="12">
+        <v>50.0</v>
+      </c>
+      <c r="M14" s="12">
+        <v>50.0</v>
+      </c>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="12">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="9">
+        <f t="shared" si="1"/>
+        <v>43266</v>
+      </c>
+      <c r="B15" s="9">
+        <f t="shared" si="2"/>
+        <v>43631</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="12">
+        <v>135.0</v>
+      </c>
+      <c r="M15" s="12">
+        <v>45.0</v>
+      </c>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="12">
+        <v>45.0</v>
+      </c>
+    </row>
     <row r="16" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
-    <row r="19" ht="15.75" customHeight="1"/>
-    <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
     <row r="23" ht="15.75" customHeight="1"/>
@@ -1606,7 +2036,28 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="3" max="20" width="14.43"/>
+    <col customWidth="1" min="1" max="1" width="17.14"/>
+    <col customWidth="1" min="2" max="2" width="18.14"/>
+    <col customWidth="1" min="3" max="3" width="13.57"/>
+    <col customWidth="1" min="4" max="4" width="16.29"/>
+    <col customWidth="1" min="5" max="5" width="17.43"/>
+    <col customWidth="1" min="6" max="6" width="5.29"/>
+    <col customWidth="1" min="7" max="7" width="11.14"/>
+    <col customWidth="1" min="8" max="8" width="12.14"/>
+    <col customWidth="1" min="9" max="9" width="11.43"/>
+    <col customWidth="1" min="10" max="10" width="11.71"/>
+    <col customWidth="1" min="11" max="11" width="15.57"/>
+    <col customWidth="1" min="12" max="12" width="5.0"/>
+    <col customWidth="1" min="13" max="13" width="5.29"/>
+    <col customWidth="1" min="14" max="14" width="3.86"/>
+    <col customWidth="1" min="15" max="15" width="5.57"/>
+    <col customWidth="1" min="16" max="16" width="10.71"/>
+    <col customWidth="1" min="17" max="17" width="5.0"/>
+    <col customWidth="1" min="18" max="18" width="12.0"/>
+    <col customWidth="1" min="19" max="19" width="9.43"/>
+    <col customWidth="1" min="20" max="20" width="4.43"/>
+    <col customWidth="1" min="21" max="21" width="12.29"/>
+    <col customWidth="1" min="22" max="22" width="13.0"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -1622,52 +2073,52 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="5" t="s">
         <v>19</v>
       </c>
       <c r="U1" s="2" t="s">
@@ -1676,302 +2127,308 @@
       <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="5">
+      <c r="A2" s="6">
         <f t="shared" ref="A2:A9" si="1">TODAY()</f>
-        <v>43264</v>
-      </c>
-      <c r="B2" s="5">
+        <v>43266</v>
+      </c>
+      <c r="B2" s="6">
         <f t="shared" ref="B2:B9" si="2">A2 + 365</f>
-        <v>43629</v>
+        <v>43631</v>
       </c>
       <c r="E2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>29</v>
+      <c r="F2" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="I2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="J2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="1">
+      <c r="K2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="7">
         <v>150.0</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="7">
         <v>75.0</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2" s="7">
         <v>150.0</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="5">
+      <c r="A3" s="6">
         <f t="shared" si="1"/>
-        <v>43264</v>
-      </c>
-      <c r="B3" s="5">
+        <v>43266</v>
+      </c>
+      <c r="B3" s="6">
         <f t="shared" si="2"/>
-        <v>43629</v>
+        <v>43631</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="I3" s="7" t="s">
         <v>27</v>
       </c>
+      <c r="J3" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="K3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" s="1">
+        <v>36</v>
+      </c>
+      <c r="P3" s="7">
         <v>250.0</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="5">
+      <c r="A4" s="6">
         <f t="shared" si="1"/>
-        <v>43264</v>
-      </c>
-      <c r="B4" s="5">
+        <v>43266</v>
+      </c>
+      <c r="B4" s="6">
         <f t="shared" si="2"/>
-        <v>43629</v>
+        <v>43631</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="I4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="1"/>
-      <c r="P4" s="1">
+      <c r="J4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="P4" s="7">
         <v>250.0</v>
       </c>
-      <c r="S4" s="1"/>
+      <c r="S4" s="7"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <f t="shared" si="1"/>
-        <v>43264</v>
-      </c>
-      <c r="B5" s="5">
+        <v>43266</v>
+      </c>
+      <c r="B5" s="6">
         <f t="shared" si="2"/>
-        <v>43629</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>37</v>
+        <v>43631</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="I5" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="J5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" s="1">
+        <v>47</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="7">
         <v>166.0</v>
       </c>
-      <c r="S5" s="1">
+      <c r="S5" s="7">
         <v>166.0</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="5">
+      <c r="A6" s="6">
         <f t="shared" si="1"/>
-        <v>43264</v>
-      </c>
-      <c r="B6" s="5">
+        <v>43266</v>
+      </c>
+      <c r="B6" s="6">
         <f t="shared" si="2"/>
-        <v>43629</v>
+        <v>43631</v>
       </c>
       <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>29</v>
+      <c r="F6" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="1">
+      <c r="K6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="7">
         <v>150.0</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="7">
         <v>75.0</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6" s="7">
         <v>150.0</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="5">
+      <c r="A7" s="6">
         <f t="shared" si="1"/>
-        <v>43264</v>
-      </c>
-      <c r="B7" s="5">
+        <v>43266</v>
+      </c>
+      <c r="B7" s="6">
         <f t="shared" si="2"/>
-        <v>43629</v>
+        <v>43631</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I7" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>27</v>
+        <v>50</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="K7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P7" s="1">
+        <v>36</v>
+      </c>
+      <c r="P7" s="7">
         <v>250.0</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="5">
+      <c r="A8" s="6">
         <f t="shared" si="1"/>
-        <v>43264</v>
-      </c>
-      <c r="B8" s="5">
+        <v>43266</v>
+      </c>
+      <c r="B8" s="6">
         <f t="shared" si="2"/>
-        <v>43629</v>
+        <v>43631</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="1"/>
-      <c r="P8" s="1">
+        <v>50</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="P8" s="7">
         <v>250.0</v>
       </c>
-      <c r="S8" s="1"/>
+      <c r="S8" s="7"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="5">
+      <c r="A9" s="6">
         <f t="shared" si="1"/>
-        <v>43264</v>
-      </c>
-      <c r="B9" s="5">
+        <v>43266</v>
+      </c>
+      <c r="B9" s="6">
         <f t="shared" si="2"/>
-        <v>43629</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>37</v>
+        <v>43631</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J9" t="s">
-        <v>38</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L9" s="1">
+        <v>47</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" s="7">
         <v>166.0</v>
       </c>
-      <c r="S9" s="1">
+      <c r="S9" s="7">
         <v>166.0</v>
       </c>
     </row>
@@ -2981,7 +3438,27 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="3" max="20" width="14.43"/>
+    <col customWidth="1" min="1" max="1" width="17.14"/>
+    <col customWidth="1" min="2" max="2" width="18.14"/>
+    <col customWidth="1" min="3" max="3" width="13.57"/>
+    <col customWidth="1" min="4" max="4" width="16.29"/>
+    <col customWidth="1" min="5" max="5" width="17.43"/>
+    <col customWidth="1" min="6" max="6" width="5.29"/>
+    <col customWidth="1" min="7" max="7" width="11.14"/>
+    <col customWidth="1" min="8" max="8" width="12.14"/>
+    <col customWidth="1" min="9" max="9" width="11.43"/>
+    <col customWidth="1" min="10" max="10" width="11.71"/>
+    <col customWidth="1" min="11" max="11" width="15.57"/>
+    <col customWidth="1" min="12" max="13" width="5.86"/>
+    <col customWidth="1" min="14" max="14" width="3.86"/>
+    <col customWidth="1" min="15" max="15" width="5.57"/>
+    <col customWidth="1" min="16" max="16" width="10.71"/>
+    <col customWidth="1" min="17" max="17" width="5.0"/>
+    <col customWidth="1" min="18" max="18" width="12.0"/>
+    <col customWidth="1" min="19" max="19" width="9.43"/>
+    <col customWidth="1" min="20" max="20" width="4.43"/>
+    <col customWidth="1" min="21" max="21" width="12.29"/>
+    <col customWidth="1" min="22" max="22" width="13.0"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -2997,52 +3474,52 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="5" t="s">
         <v>19</v>
       </c>
       <c r="U1" s="2" t="s">
@@ -3051,41 +3528,47 @@
       <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="5">
+      <c r="A2" s="6">
         <f t="shared" ref="A2:A9" si="1">TODAY()</f>
-        <v>43264</v>
-      </c>
-      <c r="B2" s="5">
+        <v>43266</v>
+      </c>
+      <c r="B2" s="6">
         <f t="shared" ref="B2:B9" si="2">A2 + 365</f>
-        <v>43629</v>
+        <v>43631</v>
       </c>
       <c r="E2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>29</v>
+      <c r="F2" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="6">
+      <c r="I2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="8">
         <v>18.75</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="8">
         <v>9.375</v>
       </c>
       <c r="N2">
@@ -3103,7 +3586,7 @@
       <c r="R2">
         <v>0.0</v>
       </c>
-      <c r="S2" s="6">
+      <c r="S2" s="8">
         <v>18.75</v>
       </c>
       <c r="T2">
@@ -3111,34 +3594,34 @@
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="5">
+      <c r="A3" s="6">
         <f t="shared" si="1"/>
-        <v>43264</v>
-      </c>
-      <c r="B3" s="5">
+        <v>43266</v>
+      </c>
+      <c r="B3" s="6">
         <f t="shared" si="2"/>
-        <v>43629</v>
+        <v>43631</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="K3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L3">
         <v>0.0</v>
@@ -3152,7 +3635,7 @@
       <c r="O3">
         <v>0.0</v>
       </c>
-      <c r="P3" s="6">
+      <c r="P3" s="8">
         <v>31.25</v>
       </c>
       <c r="Q3">
@@ -3169,36 +3652,36 @@
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="5">
+      <c r="A4" s="6">
         <f t="shared" si="1"/>
-        <v>43264</v>
-      </c>
-      <c r="B4" s="5">
+        <v>43266</v>
+      </c>
+      <c r="B4" s="6">
         <f t="shared" si="2"/>
-        <v>43629</v>
+        <v>43631</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="6">
+      <c r="I4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="8">
         <v>0.0</v>
       </c>
       <c r="M4">
@@ -3210,7 +3693,7 @@
       <c r="O4">
         <v>0.0</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4" s="8">
         <v>31.25</v>
       </c>
       <c r="Q4">
@@ -3219,7 +3702,7 @@
       <c r="R4">
         <v>0.0</v>
       </c>
-      <c r="S4" s="6">
+      <c r="S4" s="8">
         <v>0.0</v>
       </c>
       <c r="T4">
@@ -3227,38 +3710,38 @@
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <f t="shared" si="1"/>
-        <v>43264</v>
-      </c>
-      <c r="B5" s="5">
+        <v>43266</v>
+      </c>
+      <c r="B5" s="6">
         <f t="shared" si="2"/>
-        <v>43629</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>37</v>
+        <v>43631</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" s="6">
+      <c r="I5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="8">
         <v>20.75</v>
       </c>
       <c r="M5">
@@ -3279,7 +3762,7 @@
       <c r="R5">
         <v>0.0</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5" s="8">
         <v>20.75</v>
       </c>
       <c r="T5">
@@ -3287,39 +3770,39 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="5">
+      <c r="A6" s="6">
         <f t="shared" si="1"/>
-        <v>43264</v>
-      </c>
-      <c r="B6" s="5">
+        <v>43266</v>
+      </c>
+      <c r="B6" s="6">
         <f t="shared" si="2"/>
-        <v>43629</v>
+        <v>43631</v>
       </c>
       <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>29</v>
+      <c r="F6" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="6">
+        <v>50</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="8">
         <v>18.75</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="8">
         <v>9.375</v>
       </c>
       <c r="N6">
@@ -3337,7 +3820,7 @@
       <c r="R6">
         <v>0.0</v>
       </c>
-      <c r="S6" s="6">
+      <c r="S6" s="8">
         <v>18.75</v>
       </c>
       <c r="T6">
@@ -3345,34 +3828,34 @@
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="5">
+      <c r="A7" s="6">
         <f t="shared" si="1"/>
-        <v>43264</v>
-      </c>
-      <c r="B7" s="5">
+        <v>43266</v>
+      </c>
+      <c r="B7" s="6">
         <f t="shared" si="2"/>
-        <v>43629</v>
+        <v>43631</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="G7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="K7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L7">
         <v>0.0</v>
@@ -3386,7 +3869,7 @@
       <c r="O7">
         <v>0.0</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7" s="8">
         <v>31.25</v>
       </c>
       <c r="Q7">
@@ -3403,36 +3886,36 @@
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="5">
+      <c r="A8" s="6">
         <f t="shared" si="1"/>
-        <v>43264</v>
-      </c>
-      <c r="B8" s="5">
+        <v>43266</v>
+      </c>
+      <c r="B8" s="6">
         <f t="shared" si="2"/>
-        <v>43629</v>
+        <v>43631</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="6">
+        <v>50</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="8">
         <v>0.0</v>
       </c>
       <c r="M8">
@@ -3444,7 +3927,7 @@
       <c r="O8">
         <v>0.0</v>
       </c>
-      <c r="P8" s="6">
+      <c r="P8" s="8">
         <v>31.25</v>
       </c>
       <c r="Q8">
@@ -3453,7 +3936,7 @@
       <c r="R8">
         <v>0.0</v>
       </c>
-      <c r="S8" s="6">
+      <c r="S8" s="8">
         <v>0.0</v>
       </c>
       <c r="T8">
@@ -3461,38 +3944,38 @@
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="5">
+      <c r="A9" s="6">
         <f t="shared" si="1"/>
-        <v>43264</v>
-      </c>
-      <c r="B9" s="5">
+        <v>43266</v>
+      </c>
+      <c r="B9" s="6">
         <f t="shared" si="2"/>
-        <v>43629</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>37</v>
+        <v>43631</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L9" s="6">
+        <v>50</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" s="8">
         <v>20.75</v>
       </c>
       <c r="M9">
@@ -3513,7 +3996,7 @@
       <c r="R9">
         <v>0.0</v>
       </c>
-      <c r="S9" s="6">
+      <c r="S9" s="8">
         <v>20.75</v>
       </c>
       <c r="T9">
@@ -4526,7 +5009,27 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="3" max="20" width="14.43"/>
+    <col customWidth="1" min="1" max="1" width="17.14"/>
+    <col customWidth="1" min="2" max="2" width="18.14"/>
+    <col customWidth="1" min="3" max="3" width="13.57"/>
+    <col customWidth="1" min="4" max="4" width="16.29"/>
+    <col customWidth="1" min="5" max="5" width="17.43"/>
+    <col customWidth="1" min="6" max="6" width="5.29"/>
+    <col customWidth="1" min="7" max="7" width="11.14"/>
+    <col customWidth="1" min="8" max="8" width="12.14"/>
+    <col customWidth="1" min="9" max="9" width="11.43"/>
+    <col customWidth="1" min="10" max="10" width="11.71"/>
+    <col customWidth="1" min="11" max="11" width="15.57"/>
+    <col customWidth="1" min="12" max="13" width="5.86"/>
+    <col customWidth="1" min="14" max="14" width="3.86"/>
+    <col customWidth="1" min="15" max="15" width="5.57"/>
+    <col customWidth="1" min="16" max="16" width="10.71"/>
+    <col customWidth="1" min="17" max="17" width="5.0"/>
+    <col customWidth="1" min="18" max="18" width="12.0"/>
+    <col customWidth="1" min="19" max="19" width="9.43"/>
+    <col customWidth="1" min="20" max="20" width="4.43"/>
+    <col customWidth="1" min="21" max="21" width="12.29"/>
+    <col customWidth="1" min="22" max="22" width="13.0"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -4542,52 +5045,52 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="5" t="s">
         <v>19</v>
       </c>
       <c r="U1" s="2" t="s">
@@ -4596,41 +5099,47 @@
       <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="5">
+      <c r="A2" s="6">
         <f t="shared" ref="A2:A9" si="1">TODAY()</f>
-        <v>43264</v>
-      </c>
-      <c r="B2" s="5">
+        <v>43266</v>
+      </c>
+      <c r="B2" s="6">
         <f t="shared" ref="B2:B9" si="2">A2 + 365</f>
-        <v>43629</v>
+        <v>43631</v>
       </c>
       <c r="E2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>29</v>
+      <c r="F2" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="6">
+      <c r="I2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="8">
         <v>18.75</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="8">
         <v>9.375</v>
       </c>
       <c r="N2">
@@ -4648,7 +5157,7 @@
       <c r="R2">
         <v>0.0</v>
       </c>
-      <c r="S2" s="6">
+      <c r="S2" s="8">
         <v>18.75</v>
       </c>
       <c r="T2">
@@ -4656,34 +5165,34 @@
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="5">
+      <c r="A3" s="6">
         <f t="shared" si="1"/>
-        <v>43264</v>
-      </c>
-      <c r="B3" s="5">
+        <v>43266</v>
+      </c>
+      <c r="B3" s="6">
         <f t="shared" si="2"/>
-        <v>43629</v>
+        <v>43631</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="K3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L3">
         <v>0.0</v>
@@ -4697,7 +5206,7 @@
       <c r="O3">
         <v>0.0</v>
       </c>
-      <c r="P3" s="6">
+      <c r="P3" s="8">
         <v>31.25</v>
       </c>
       <c r="Q3">
@@ -4714,36 +5223,36 @@
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="5">
+      <c r="A4" s="6">
         <f t="shared" si="1"/>
-        <v>43264</v>
-      </c>
-      <c r="B4" s="5">
+        <v>43266</v>
+      </c>
+      <c r="B4" s="6">
         <f t="shared" si="2"/>
-        <v>43629</v>
+        <v>43631</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="6">
+      <c r="I4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="8">
         <v>0.0</v>
       </c>
       <c r="M4">
@@ -4755,7 +5264,7 @@
       <c r="O4">
         <v>0.0</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4" s="8">
         <v>31.25</v>
       </c>
       <c r="Q4">
@@ -4764,7 +5273,7 @@
       <c r="R4">
         <v>0.0</v>
       </c>
-      <c r="S4" s="6">
+      <c r="S4" s="8">
         <v>0.0</v>
       </c>
       <c r="T4">
@@ -4772,38 +5281,38 @@
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <f t="shared" si="1"/>
-        <v>43264</v>
-      </c>
-      <c r="B5" s="5">
+        <v>43266</v>
+      </c>
+      <c r="B5" s="6">
         <f t="shared" si="2"/>
-        <v>43629</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>37</v>
+        <v>43631</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" s="6">
+      <c r="I5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="8">
         <v>20.75</v>
       </c>
       <c r="M5">
@@ -4824,7 +5333,7 @@
       <c r="R5">
         <v>0.0</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5" s="8">
         <v>20.75</v>
       </c>
       <c r="T5">
@@ -4832,39 +5341,39 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="5">
+      <c r="A6" s="6">
         <f t="shared" si="1"/>
-        <v>43264</v>
-      </c>
-      <c r="B6" s="5">
+        <v>43266</v>
+      </c>
+      <c r="B6" s="6">
         <f t="shared" si="2"/>
-        <v>43629</v>
+        <v>43631</v>
       </c>
       <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>29</v>
+      <c r="F6" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="6">
+        <v>50</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="8">
         <v>18.75</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="8">
         <v>9.375</v>
       </c>
       <c r="N6">
@@ -4882,7 +5391,7 @@
       <c r="R6">
         <v>0.0</v>
       </c>
-      <c r="S6" s="6">
+      <c r="S6" s="8">
         <v>18.75</v>
       </c>
       <c r="T6">
@@ -4890,34 +5399,34 @@
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="5">
+      <c r="A7" s="6">
         <f t="shared" si="1"/>
-        <v>43264</v>
-      </c>
-      <c r="B7" s="5">
+        <v>43266</v>
+      </c>
+      <c r="B7" s="6">
         <f t="shared" si="2"/>
-        <v>43629</v>
+        <v>43631</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="G7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="K7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L7">
         <v>0.0</v>
@@ -4931,7 +5440,7 @@
       <c r="O7">
         <v>0.0</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7" s="8">
         <v>31.25</v>
       </c>
       <c r="Q7">
@@ -4948,36 +5457,36 @@
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="5">
+      <c r="A8" s="6">
         <f t="shared" si="1"/>
-        <v>43264</v>
-      </c>
-      <c r="B8" s="5">
+        <v>43266</v>
+      </c>
+      <c r="B8" s="6">
         <f t="shared" si="2"/>
-        <v>43629</v>
+        <v>43631</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="6">
+        <v>50</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="8">
         <v>0.0</v>
       </c>
       <c r="M8">
@@ -4989,7 +5498,7 @@
       <c r="O8">
         <v>0.0</v>
       </c>
-      <c r="P8" s="6">
+      <c r="P8" s="8">
         <v>31.25</v>
       </c>
       <c r="Q8">
@@ -4998,7 +5507,7 @@
       <c r="R8">
         <v>0.0</v>
       </c>
-      <c r="S8" s="6">
+      <c r="S8" s="8">
         <v>0.0</v>
       </c>
       <c r="T8">
@@ -5006,38 +5515,38 @@
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="5">
+      <c r="A9" s="6">
         <f t="shared" si="1"/>
-        <v>43264</v>
-      </c>
-      <c r="B9" s="5">
+        <v>43266</v>
+      </c>
+      <c r="B9" s="6">
         <f t="shared" si="2"/>
-        <v>43629</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>37</v>
+        <v>43631</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L9" s="6">
+        <v>50</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" s="8">
         <v>20.75</v>
       </c>
       <c r="M9">
@@ -5058,7 +5567,7 @@
       <c r="R9">
         <v>0.0</v>
       </c>
-      <c r="S9" s="6">
+      <c r="S9" s="8">
         <v>20.75</v>
       </c>
       <c r="T9">
